--- a/Documents/2_reproducibility/Schedule.xlsx
+++ b/Documents/2_reproducibility/Schedule.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Desktop/nuriateixidolab.github.io/Documents/2_reproducibility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8481F1B0-B001-B942-B8D4-A3B836D803F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2CC2A0-90F4-B54A-8FE8-564AF50C675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30400" yWindow="660" windowWidth="38080" windowHeight="20780" activeTab="1" xr2:uid="{E66D9154-F78D-2440-90AD-53E4B7F0C132}"/>
+    <workbookView xWindow="31880" yWindow="660" windowWidth="36600" windowHeight="20780" activeTab="1" xr2:uid="{E66D9154-F78D-2440-90AD-53E4B7F0C132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
   <si>
     <t>Time</t>
   </si>
@@ -301,138 +301,6 @@
       </rPr>
       <t> BisBoccia</t>
     </r>
-  </si>
-  <si>
-    <t>10:30-10:45</t>
-  </si>
-  <si>
-    <t>09:00-09:15</t>
-  </si>
-  <si>
-    <t>09:15-09:30</t>
-  </si>
-  <si>
-    <t>09:30-09:45</t>
-  </si>
-  <si>
-    <t>09:45-10:00</t>
-  </si>
-  <si>
-    <t>10:00-10:15</t>
-  </si>
-  <si>
-    <t>10:15-10:30</t>
-  </si>
-  <si>
-    <t>10:45-11:00</t>
-  </si>
-  <si>
-    <t>11:00-11:15</t>
-  </si>
-  <si>
-    <t>11:15-11:30</t>
-  </si>
-  <si>
-    <t>11:30-11:45</t>
-  </si>
-  <si>
-    <t>11:45-12:00</t>
-  </si>
-  <si>
-    <t>12:00-12:15</t>
-  </si>
-  <si>
-    <t>12:15-12:30</t>
-  </si>
-  <si>
-    <t>12:30-12:45</t>
-  </si>
-  <si>
-    <t>12:45-13:00</t>
-  </si>
-  <si>
-    <t>13:00-13:15</t>
-  </si>
-  <si>
-    <t>13:15-13:30</t>
-  </si>
-  <si>
-    <t>13:30-13:45</t>
-  </si>
-  <si>
-    <t>13:45-14:00</t>
-  </si>
-  <si>
-    <t>14:00-14:15</t>
-  </si>
-  <si>
-    <t>14:15-14:30</t>
-  </si>
-  <si>
-    <t>14:30-14:45</t>
-  </si>
-  <si>
-    <t>14:45-15:00</t>
-  </si>
-  <si>
-    <t>15:00-15:15</t>
-  </si>
-  <si>
-    <t>15:15-15:30</t>
-  </si>
-  <si>
-    <t>15:30-15:45</t>
-  </si>
-  <si>
-    <t>15:45-16:00</t>
-  </si>
-  <si>
-    <t>16:00-16:15</t>
-  </si>
-  <si>
-    <t>16:15-16:30</t>
-  </si>
-  <si>
-    <t>16:30-16:45</t>
-  </si>
-  <si>
-    <t>16:45-17:00</t>
-  </si>
-  <si>
-    <t>17:00-17:15</t>
-  </si>
-  <si>
-    <t>17:15-17:30</t>
-  </si>
-  <si>
-    <t>17:30-17:45</t>
-  </si>
-  <si>
-    <t>17:45-18:00</t>
-  </si>
-  <si>
-    <t>18:00-18:15</t>
-  </si>
-  <si>
-    <t>18:15-18:30</t>
-  </si>
-  <si>
-    <t>18:30-18:45</t>
-  </si>
-  <si>
-    <t>18:45-19:00</t>
-  </si>
-  <si>
-    <t>19:00-19:15</t>
-  </si>
-  <si>
-    <t>19:15-19:30</t>
-  </si>
-  <si>
-    <t>19:30-19:45</t>
-  </si>
-  <si>
-    <t>19:45-20:00</t>
   </si>
   <si>
     <r>
@@ -482,20 +350,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">MEDAS                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arrival &amp; Welcome</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -513,20 +367,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">           teachers &amp; students</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MEDAS-Lab            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hands-on species ID (30')</t>
     </r>
   </si>
   <si>
@@ -626,69 +466,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Introduction to GitHub, JC (1h30)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MEDAS-Meeting room</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Package </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Seacarb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, SC (30')</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MEDAS-Meeting room </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Discussion results</t>
     </r>
   </si>
@@ -1058,6 +835,119 @@
     </r>
   </si>
   <si>
+    <t>09:00–09:20</t>
+  </si>
+  <si>
+    <t>09:20–09:40</t>
+  </si>
+  <si>
+    <t>09:40–10:00</t>
+  </si>
+  <si>
+    <t>10:00–10:20</t>
+  </si>
+  <si>
+    <t>10:20–10:40</t>
+  </si>
+  <si>
+    <t>10:40–11:00</t>
+  </si>
+  <si>
+    <t>11:00–11:20</t>
+  </si>
+  <si>
+    <t>11:20–11:40</t>
+  </si>
+  <si>
+    <t>11:40–12:00</t>
+  </si>
+  <si>
+    <t>12:00–12:20</t>
+  </si>
+  <si>
+    <t>12:20–12:40</t>
+  </si>
+  <si>
+    <t>12:40–13:00</t>
+  </si>
+  <si>
+    <t>13:00–13:20</t>
+  </si>
+  <si>
+    <t>13:20–13:40</t>
+  </si>
+  <si>
+    <t>13:40–14:00</t>
+  </si>
+  <si>
+    <t>14:00–14:20</t>
+  </si>
+  <si>
+    <t>14:20–14:40</t>
+  </si>
+  <si>
+    <t>14:40–15:00</t>
+  </si>
+  <si>
+    <t>15:00–15:20</t>
+  </si>
+  <si>
+    <t>15:20–15:40</t>
+  </si>
+  <si>
+    <t>15:40–16:00</t>
+  </si>
+  <si>
+    <t>16:00–16:20</t>
+  </si>
+  <si>
+    <t>16:20–16:40</t>
+  </si>
+  <si>
+    <t>16:40–17:00</t>
+  </si>
+  <si>
+    <t>17:00–17:20</t>
+  </si>
+  <si>
+    <t>17:20–17:40</t>
+  </si>
+  <si>
+    <t>17:40–18:00</t>
+  </si>
+  <si>
+    <t>18:00–18:20</t>
+  </si>
+  <si>
+    <t>18:20–18:40</t>
+  </si>
+  <si>
+    <t>18:40–19:00</t>
+  </si>
+  <si>
+    <t>19:00–19:20</t>
+  </si>
+  <si>
+    <t>19:20–19:40</t>
+  </si>
+  <si>
+    <t>19:40–20:00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MEDAS-Meeting room </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GitHub Intro, JC (1h30)                   Seacarb in R, SC (30')</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">MEDAS-Meeting room                      </t>
     </r>
@@ -1068,8 +958,36 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>OA, macrophytes 
-Photosyntesis, Respi. &amp; Calcifi., IO (1h)</t>
+      <t xml:space="preserve">
+Photo., Respi., Calcif., OA, macrophytes, IO (1h)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MEDAS                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arrival &amp; Welcome</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MEDAS-Lab              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hands-on species ID (30')</t>
     </r>
   </si>
 </sst>
@@ -1080,7 +998,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1149,12 +1067,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1186,12 +1098,6 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1246,7 +1152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1351,17 +1257,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1416,30 +1311,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1459,15 +1343,12 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1477,7 +1358,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,18 +1367,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1513,69 +1388,80 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1934,10 +1820,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1958,8 +1844,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1977,8 +1863,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1997,8 +1883,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -2012,8 +1898,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -2021,32 +1907,32 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" s="2" t="s">
@@ -2054,80 +1940,80 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -2154,10 +2040,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2178,8 +2064,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2200,8 +2086,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2220,8 +2106,8 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="2"/>
       <c r="F25" s="1" t="s">
         <v>51</v>
@@ -2232,8 +2118,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="2"/>
       <c r="F26" s="1" t="s">
         <v>52</v>
@@ -2241,57 +2127,57 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2306,10 +2192,10 @@
       <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
         <v>65</v>
       </c>
@@ -2322,10 +2208,10 @@
       <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -2334,13 +2220,13 @@
       <c r="E35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2349,38 +2235,38 @@
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -2458,700 +2344,570 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566C5241-386C-2D47-8E3C-9C9E3BCD3375}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="8" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="57"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I2" s="58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="36" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="14"/>
+      <c r="K28" s="43"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="C30" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="G33" s="13"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="17"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="43"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="43"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="43"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="43"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="43"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="43"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="43"/>
-    </row>
+      <c r="H37" s="36"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="F2:F17"/>
-    <mergeCell ref="F22:F33"/>
-    <mergeCell ref="F34:F43"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D22:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E22:E33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="D2:D17"/>
-    <mergeCell ref="G2:G17"/>
-    <mergeCell ref="G22:G37"/>
-    <mergeCell ref="G38:G47"/>
-    <mergeCell ref="H2:H17"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="H30:H47"/>
+  <mergeCells count="37">
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="G18:G26"/>
+    <mergeCell ref="G27:G34"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="E18:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F18:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="E3:E14"/>
+    <mergeCell ref="H3:H14"/>
+    <mergeCell ref="H18:H29"/>
+    <mergeCell ref="H30:H37"/>
+    <mergeCell ref="I3:I14"/>
+    <mergeCell ref="I18:I23"/>
+    <mergeCell ref="I24:I37"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
